--- a/Scripts/SCIC0016 - Amend Worst collectibility details/Report/Report/Default.xlsx
+++ b/Scripts/SCIC0016 - Amend Worst collectibility details/Report/Report/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="ICON0001" sheetId="2" r:id="rId2"/>
+    <sheet name="ICON0016" sheetId="2" r:id="rId2"/>
     <sheet name="TEMPORARY" sheetId="3" r:id="rId3"/>
     <sheet name="LOG" sheetId="4" r:id="rId4"/>
     <sheet name="ICONS" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -29,55 +29,28 @@
     <t>Automation Team 2</t>
   </si>
   <si>
-    <t>ICON0001</t>
-  </si>
-  <si>
     <t>SCENARIO_NAME</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>ktp</t>
-  </si>
-  <si>
-    <t>KOTA_PENERBIT_ID</t>
-  </si>
-  <si>
-    <t>12/12/1993</t>
-  </si>
-  <si>
-    <t>KODE_KECAMATAN</t>
-  </si>
-  <si>
-    <t>JL. Pejompongan</t>
-  </si>
-  <si>
-    <t>BADAN_USAHA_PERUSAHAAN</t>
-  </si>
-  <si>
-    <t>Candra</t>
-  </si>
-  <si>
-    <t>UFTOne1@gmail.com</t>
-  </si>
-  <si>
-    <t>KODE_LOKASI_BI</t>
-  </si>
-  <si>
     <t>fnstpca</t>
   </si>
   <si>
     <t>passw0rd</t>
   </si>
   <si>
-    <t>NAMA_NASABAH</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>17060</t>
+    <t>CIF_T_016</t>
+  </si>
+  <si>
+    <t>KODE_OTHER_BANK_WORST_COLLECTIBILITY</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AL</t>
   </si>
   <si>
     <t>ICONS_SCREEN_450</t>
@@ -98,28 +71,22 @@
     <t>RUN</t>
   </si>
   <si>
-    <t>Account should be created</t>
-  </si>
-  <si>
-    <t>reset_teller</t>
-  </si>
-  <si>
-    <t>KODE_JENIS_NASABAH</t>
-  </si>
-  <si>
-    <t>KODE_PROVINSI</t>
-  </si>
-  <si>
-    <t>ALAMAT_PERUSAHAAN_1</t>
-  </si>
-  <si>
-    <t>KODE_BEBAS_PPH</t>
+    <t>KODE_DETAIL</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>KODE_PENGHASILAN_PERBULAN</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
   <si>
     <t>LOG_FNSONLAD_PASSWORD</t>
@@ -131,22 +98,10 @@
     <t>PROJECT_MANAGER</t>
   </si>
   <si>
-    <t>test case</t>
-  </si>
-  <si>
-    <t>123213123123</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Pemerintah Kota</t>
-  </si>
-  <si>
-    <t>123123124</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AX</t>
   </si>
   <si>
     <t>LOG_FNSTPCA_IP_ADDRESS</t>
@@ -155,28 +110,10 @@
     <t>HEADER_BODY</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>NO_ID</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>10/10</t>
-  </si>
-  <si>
-    <t>NO_PAJAK_LUAR_IDN</t>
-  </si>
-  <si>
-    <t>NO_TELP_HP</t>
-  </si>
-  <si>
-    <t>KODE_GRUP_PRSH</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
   <si>
     <t>LOG_FNSONLAD_USER</t>
@@ -191,19 +128,16 @@
     <t>Automation Test Execution Document</t>
   </si>
   <si>
-    <t>TGL_JTH_TEMPO_ID</t>
-  </si>
-  <si>
-    <t>RT_RW</t>
-  </si>
-  <si>
-    <t>BANK</t>
-  </si>
-  <si>
-    <t>KODE_PENGHASILAN_PERTAHUN</t>
-  </si>
-  <si>
-    <t>9999</t>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AI</t>
   </si>
   <si>
     <t>ICONS_URL</t>
@@ -212,25 +146,19 @@
     <t>TESTER2</t>
   </si>
   <si>
-    <t>Perijinan Lain</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
-    <t>TGL_LAHIR</t>
-  </si>
-  <si>
-    <t>KODE_AGAMA</t>
-  </si>
-  <si>
-    <t>ALAMAT_LENGKAP</t>
-  </si>
-  <si>
-    <t>ALAMAT_PERUSAHAAN_2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>10000684950</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AQ</t>
   </si>
   <si>
     <t>AU</t>
@@ -245,49 +173,25 @@
     <t>DEVELOPMENT_MANAGER</t>
   </si>
   <si>
-    <t>Create Account</t>
-  </si>
-  <si>
-    <t>JENIS_KELAMIN</t>
-  </si>
-  <si>
-    <t>TEMPAT_LAHIR</t>
-  </si>
-  <si>
-    <t>NAMA_IBU_KANDUNG</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>KODE_DOMISILI_PAJAK</t>
-  </si>
-  <si>
-    <t>KODE_PEMILIK_BI</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>siti nur jela</t>
-  </si>
-  <si>
-    <t>8068466857473753</t>
-  </si>
-  <si>
-    <t>NO_NPWP</t>
-  </si>
-  <si>
-    <t>KODE_KOTA_KAB</t>
-  </si>
-  <si>
-    <t>DOMISILI_PAJAK_LUAR_IDN</t>
-  </si>
-  <si>
-    <t>NAMA_NOTARIS</t>
-  </si>
-  <si>
-    <t>6289699141517</t>
+    <t xml:space="preserve">CIF-Maintenance </t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>Amend Worst collectibility details(67050-&gt;67060)</t>
+  </si>
+  <si>
+    <t>Validate Worst collectibility details(67050-&gt;67060)</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
   <si>
     <t>LOG_FNSONLAD_IP_ADDRESS</t>
@@ -302,37 +206,13 @@
     <t>TESTING_GROUPHEAD</t>
   </si>
   <si>
-    <t>KODE_PANGGILAN</t>
-  </si>
-  <si>
-    <t>jakarta</t>
-  </si>
-  <si>
-    <t>nurleha</t>
-  </si>
-  <si>
-    <t>KODE_DESA_KELURAHAN</t>
-  </si>
-  <si>
-    <t>PT. Mencari Cinta Sejati</t>
-  </si>
-  <si>
-    <t>TANGGAL_PENDIRIAN_OR_TANGGAL_TERBIT</t>
-  </si>
-  <si>
-    <t>12/12/2021</t>
-  </si>
-  <si>
-    <t>NO_TELP_RUMAH</t>
-  </si>
-  <si>
-    <t>KODE_SEGMEN_BI</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>KODE_SUB_SEGMEN</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AJ</t>
   </si>
   <si>
     <t>ICONS_PASSWORD</t>
@@ -347,19 +227,19 @@
     <t>TC_ID</t>
   </si>
   <si>
-    <t>JENIS_ID</t>
-  </si>
-  <si>
-    <t>12/12/2025</t>
-  </si>
-  <si>
-    <t>KODE_MENIKAH</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>321123322</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>LOG_FNSTPCA_PORT</t>
@@ -368,16 +248,10 @@
     <t>HEADER_DESCRIPTION</t>
   </si>
   <si>
-    <t>COMMAND_RESET_TELLER</t>
-  </si>
-  <si>
-    <t>NAMA_PERUSAHAAN</t>
-  </si>
-  <si>
-    <t>0198</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>AV</t>
   </si>
   <si>
     <t>ICONS_NO_BRANCH</t>
@@ -392,13 +266,10 @@
     <t>run</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>KODE_PENDIDIKAN</t>
-  </si>
-  <si>
-    <t>02196997</t>
+    <t>User should able to update document in bancslink.</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
   <si>
     <t>LOG_FNSTPCA_PASSWORD</t>
@@ -407,16 +278,13 @@
     <t>EXPECTED_RESULT</t>
   </si>
   <si>
-    <t>KODE_STATUS_NASABAH</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>bekasi</t>
-  </si>
-  <si>
-    <t>KODE_DEVISI</t>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
   <si>
     <t>192.168.132.31</t>
@@ -428,22 +296,28 @@
     <t>iexplore</t>
   </si>
   <si>
+    <t>99971</t>
+  </si>
+  <si>
     <t>UFT_VERSION</t>
   </si>
   <si>
     <t>TEST_MANAGER</t>
   </si>
   <si>
-    <t>KODE_MEMILIKI_NPWP</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sebelah Palmerah</t>
-  </si>
-  <si>
-    <t>KODE_PEKERJAAN</t>
+    <t>67050</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
   <si>
     <t>LOG_FNSTPCA_USER</t>
@@ -458,25 +332,22 @@
     <t>COVER_SUBTITLE</t>
   </si>
   <si>
+    <t>CIF_T_016_1</t>
+  </si>
+  <si>
     <t>TEST_CASE</t>
   </si>
   <si>
     <t>SCREEN</t>
   </si>
   <si>
-    <t>Akte Pendirian</t>
-  </si>
-  <si>
-    <t>jakarta Barat Arah Timur</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>123123123</t>
-  </si>
-  <si>
-    <t>KODE_SEGMEN</t>
+    <t>OTHER_BANK_NAME</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AW</t>
   </si>
   <si>
     <t>LOG_FNSONLAD_PORT</t>
@@ -493,7 +364,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +388,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -526,6 +404,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,14 +483,6 @@
       <color theme="3"/>
       <name val="Calibri Light"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -681,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -700,6 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -711,23 +593,27 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1056,19 +942,19 @@
   <sheetData>
     <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1077,61 +963,61 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>2</v>
@@ -1140,7 +1026,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:BA5"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1162,287 +1048,241 @@
     <col min="3" max="3" width="32" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="10" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="21.5703125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="10" customWidth="1"/>
-    <col min="20" max="23" width="9.078125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="11" style="10" customWidth="1"/>
-    <col min="25" max="26" width="9.078125" style="10" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" style="10" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" style="10" customWidth="1"/>
-    <col min="30" max="30" width="24" style="10" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" style="10" customWidth="1"/>
-    <col min="32" max="32" width="26.42578125" style="10" customWidth="1"/>
-    <col min="33" max="33" width="25" style="10" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="21.5703125" style="10" customWidth="1"/>
+    <col min="15" max="16" width="25.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" style="10" customWidth="1"/>
+    <col min="24" max="27" width="9.078125" style="10" customWidth="1"/>
+    <col min="28" max="28" width="11" style="10" customWidth="1"/>
+    <col min="29" max="30" width="9.078125" style="10" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" style="10" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="10" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="10" customWidth="1"/>
     <col min="34" max="34" width="24" style="10" customWidth="1"/>
-    <col min="35" max="37" width="9.078125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="13.140625" style="10" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" style="10" customWidth="1"/>
-    <col min="40" max="16384" width="9.078125" style="10" customWidth="1"/>
+    <col min="35" max="35" width="20.85546875" style="10" customWidth="1"/>
+    <col min="36" max="36" width="26.42578125" style="10" customWidth="1"/>
+    <col min="37" max="37" width="25" style="10" customWidth="1"/>
+    <col min="38" max="38" width="24" style="10" customWidth="1"/>
+    <col min="39" max="41" width="9.078125" style="10" customWidth="1"/>
+    <col min="42" max="42" width="13.140625" style="10" customWidth="1"/>
+    <col min="43" max="43" width="12.28515625" style="10" customWidth="1"/>
+    <col min="44" max="16384" width="9.078125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="55.35" customFormat="1">
+    <row r="1" ht="28.5" customFormat="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AX1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" ht="41.95">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="I2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" ht="55.35">
-      <c r="A2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3">
-        <v>63001</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1231231223</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="J2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
@@ -1453,143 +1293,79 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="12"/>
+    </row>
+    <row r="3" ht="41.95">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BA2" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3">
-        <v>63001</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1600,107 +1376,49 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="9"/>
+      <c r="AY3" s="11"/>
     </row>
-    <row r="4" ht="30">
+    <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3">
-        <v>63001</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -1711,102 +1429,48 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="9"/>
+      <c r="AY4" s="11"/>
     </row>
-    <row r="5" ht="30">
+    <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3">
-        <v>63001</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
@@ -1818,14 +1482,9 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="9"/>
+      <c r="AY5" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AQ2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1906,58 +1565,58 @@
   <sheetData>
     <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2">
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1988,48 +1647,48 @@
   <sheetData>
     <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="6">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="7">
         <v>259</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>21</v>
+      <c r="F2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
